--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FB946-9290-4220-AE06-BFE94F8A1908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9A87F-86B4-47CA-B9A5-BD6865BDB6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,17 +15,16 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Sr #</t>
   </si>
@@ -54,19 +53,19 @@
     <t>Summary of Variation Orders</t>
   </si>
   <si>
-    <t>Variation order of teat and drain valve</t>
-  </si>
-  <si>
     <t>Variation order for sprinklers</t>
   </si>
   <si>
     <t>Variation order for G.I duct Z pieces</t>
   </si>
   <si>
-    <t>Variation order for Upright Sprinlers</t>
-  </si>
-  <si>
     <t>Variation order for dismantling of ducting</t>
+  </si>
+  <si>
+    <t>Variation order of test and drain valve</t>
+  </si>
+  <si>
+    <t>26-09-2023</t>
   </si>
 </sst>
 </file>
@@ -74,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -232,14 +231,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -259,8 +255,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,13 +268,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,10 +286,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -356,7 +355,7 @@
       <sheetData sheetId="0">
         <row r="26">
           <cell r="I26">
-            <v>361200</v>
+            <v>330240</v>
           </cell>
         </row>
       </sheetData>
@@ -398,31 +397,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="25">
-          <cell r="K25">
-            <v>54886.274999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
-            <v>918585.77999999991</v>
+            <v>296986.38</v>
           </cell>
         </row>
       </sheetData>
@@ -718,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E26"/>
+  <dimension ref="A7:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -733,9 +710,8 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45195</v>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -751,120 +727,108 @@
       <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16">
         <f>[1]Sheet1!$I$26</f>
         <v>119325</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16">
+        <f>[2]Sheet1!$I$26</f>
+        <v>330240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17">
-        <f>[2]Sheet1!$I$26</f>
-        <v>361200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f>[3]Sheet1!$J$33</f>
         <v>320045.23319999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="17">
-        <f>[4]Sheet1!$K$25</f>
-        <v>54886.274999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="17">
-        <f>[5]Sheet1!$K$26</f>
-        <v>918585.77999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
+      <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16">
+        <f>[4]Sheet1!$K$26</f>
+        <v>296986.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="21">
-        <f>SUM(C16:C21)</f>
-        <v>1774042.2881999998</v>
-      </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="10"/>
+      <c r="C21" s="20">
+        <f>SUM(C16:C20)</f>
+        <v>1066596.6132</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E9A87F-86B4-47CA-B9A5-BD6865BDB6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2696A13-027B-4754-B6A2-E130E4311F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,16 +15,17 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Sr #</t>
   </si>
@@ -400,6 +401,28 @@
         <row r="26">
           <cell r="K26">
             <v>296986.38</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="26">
+          <cell r="K26">
+            <v>107824.65000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -695,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E25"/>
+  <dimension ref="A7:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -796,39 +819,51 @@
         <v>8</v>
       </c>
       <c r="C19" s="16">
+        <f>[5]Sheet1!$K$26</f>
+        <v>107824.65000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16">
         <f>[4]Sheet1!$K$26</f>
         <v>296986.38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="20">
-        <f>SUM(C16:C20)</f>
-        <v>1066596.6132</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="9"/>
+      <c r="C22" s="20">
+        <f>SUM(C16:C21)</f>
+        <v>1174421.2631999999</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2696A13-027B-4754-B6A2-E130E4311F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3502832-0178-419D-A4CA-77B151B14224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,17 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Sr #</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>26-09-2023</t>
+  </si>
+  <si>
+    <t>Variatin of Fire Flexible Pipe &amp; Sprinklers</t>
   </si>
 </sst>
 </file>
@@ -400,7 +404,7 @@
       <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
-            <v>296986.38</v>
+            <v>107824.65000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -422,7 +426,29 @@
       <sheetData sheetId="0">
         <row r="26">
           <cell r="K26">
-            <v>107824.65000000001</v>
+            <v>296986.38</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="29">
+          <cell r="I29">
+            <v>161477.03999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -718,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E26"/>
+  <dimension ref="A7:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -819,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="16">
-        <f>[5]Sheet1!$K$26</f>
+        <f>[4]Sheet1!$K$26</f>
         <v>107824.65000000001</v>
       </c>
     </row>
@@ -831,39 +857,49 @@
         <v>8</v>
       </c>
       <c r="C20" s="16">
-        <f>[4]Sheet1!$K$26</f>
+        <f>[5]Sheet1!$K$26</f>
         <v>296986.38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+    <row r="21" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16">
+        <f>[6]Sheet1!$I$29</f>
+        <v>161477.03999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20">
-        <f>SUM(C16:C21)</f>
-        <v>1174421.2631999999</v>
-      </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="9"/>
+      <c r="C23" s="20">
+        <f>SUM(C16:C22)</f>
+        <v>1335898.3032</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3502832-0178-419D-A4CA-77B151B14224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638C5E2-804A-4679-9807-2194C86F163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A7:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
